--- a/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572F6191-1858-4B3F-AFCC-1E0CA2AB8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FBD7AC-AFD0-44C7-971F-350003739827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E813D4B-E22E-47DB-8C5E-B483A480A55B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6085BC1-FD56-425F-8EF0-B5C22C30B9F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="632">
-  <si>
-    <t>Población según la frecuencia de consumición de pasta en 2007 (Tasa respuesta: 99,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="634">
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1864 +77,1870 @@
     <t>1,67%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2015 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pasta en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
   </si>
   <si>
     <t>54,47%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>Población según la frecuencia de consumición de pasta en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pasta en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97AA72E-CAE8-41BA-92D2-1A436936CD6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB54EE8-12D2-43FE-8EBD-B420448F5138}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3003,7 +3009,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -3012,13 +3018,13 @@
         <v>84138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3080,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3086,13 +3092,13 @@
         <v>7183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3101,13 +3107,13 @@
         <v>6048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3116,13 +3122,13 @@
         <v>13231</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3143,13 @@
         <v>35736</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3152,13 +3158,13 @@
         <v>29587</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3167,13 +3173,13 @@
         <v>65323</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3194,13 @@
         <v>300442</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>269</v>
@@ -3203,13 +3209,13 @@
         <v>283973</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>558</v>
@@ -3218,13 +3224,13 @@
         <v>584415</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3245,13 @@
         <v>187039</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3254,13 +3260,13 @@
         <v>150106</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -3269,13 +3275,13 @@
         <v>337145</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3296,13 @@
         <v>21007</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3305,13 +3311,13 @@
         <v>5699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3320,13 +3326,13 @@
         <v>26707</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3400,13 @@
         <v>35757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3409,13 +3415,13 @@
         <v>50570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3424,13 +3430,13 @@
         <v>86327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3451,13 @@
         <v>281295</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>258</v>
@@ -3460,13 +3466,13 @@
         <v>269127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>538</v>
@@ -3475,13 +3481,13 @@
         <v>550422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3502,13 @@
         <v>1808364</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>1897</v>
@@ -3511,28 +3517,28 @@
         <v>1946167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>3671</v>
       </c>
       <c r="N24" s="7">
-        <v>3754532</v>
+        <v>3754531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3553,13 @@
         <v>1048515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>1017</v>
@@ -3562,13 +3568,13 @@
         <v>1033227</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>2038</v>
@@ -3577,13 +3583,13 @@
         <v>2081742</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3604,13 @@
         <v>99690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -3613,13 +3619,13 @@
         <v>75079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -3628,13 +3634,13 @@
         <v>174769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3682,7 @@
         <v>6503</v>
       </c>
       <c r="N27" s="7">
-        <v>6647793</v>
+        <v>6647792</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3690,7 +3696,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA47ACAA-2BF8-46A7-9010-1524FE53B900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F092C-175B-483E-97B8-4AB8EFF7C84C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3726,7 +3732,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3833,13 +3839,13 @@
         <v>30307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3848,13 +3854,13 @@
         <v>21117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3863,13 +3869,13 @@
         <v>51424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3890,13 @@
         <v>168073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -3899,13 +3905,13 @@
         <v>210226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
@@ -3914,13 +3920,13 @@
         <v>378299</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3941,13 @@
         <v>539462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>706</v>
@@ -3950,13 +3956,13 @@
         <v>755158</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>1207</v>
@@ -3965,13 +3971,13 @@
         <v>1294621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3992,13 @@
         <v>223133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>308</v>
@@ -4001,13 +4007,13 @@
         <v>331335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -4016,13 +4022,13 @@
         <v>554468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4043,13 @@
         <v>10555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4052,13 +4058,13 @@
         <v>16975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -4067,13 +4073,13 @@
         <v>27530</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4147,13 @@
         <v>20359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4156,13 +4162,13 @@
         <v>14751</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4171,13 +4177,13 @@
         <v>35110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4198,13 @@
         <v>134221</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -4207,13 +4213,13 @@
         <v>137977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>258</v>
@@ -4222,13 +4228,13 @@
         <v>272198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,16 +4246,16 @@
         <v>983</v>
       </c>
       <c r="D12" s="7">
-        <v>1053488</v>
+        <v>1053487</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>902</v>
@@ -4258,13 +4264,13 @@
         <v>974170</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>1885</v>
@@ -4273,13 +4279,13 @@
         <v>2027657</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>693606</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>542</v>
@@ -4309,13 +4315,13 @@
         <v>577348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>1206</v>
@@ -4324,13 +4330,13 @@
         <v>1270954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4351,13 @@
         <v>61374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -4360,13 +4366,13 @@
         <v>48592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4375,13 +4381,13 @@
         <v>109965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,7 +4399,7 @@
         <v>1855</v>
       </c>
       <c r="D15" s="7">
-        <v>1963047</v>
+        <v>1963046</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4437,7 +4443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4449,13 +4455,13 @@
         <v>4085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4464,13 +4470,13 @@
         <v>2296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4479,13 +4485,13 @@
         <v>6381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4506,13 @@
         <v>21371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -4515,13 +4521,13 @@
         <v>40089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4530,13 +4536,13 @@
         <v>61460</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4557,13 @@
         <v>263353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -4566,13 +4572,13 @@
         <v>258727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>467</v>
@@ -4581,13 +4587,13 @@
         <v>522080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4608,13 @@
         <v>164107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -4617,13 +4623,13 @@
         <v>146296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -4632,13 +4638,13 @@
         <v>310402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4659,13 @@
         <v>26095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4668,13 +4674,13 @@
         <v>10205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -4683,13 +4689,13 @@
         <v>36300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4763,13 @@
         <v>54751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -4772,13 +4778,13 @@
         <v>38164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -4787,13 +4793,13 @@
         <v>92915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4814,13 @@
         <v>323665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -4823,13 +4829,13 @@
         <v>388292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>662</v>
@@ -4838,13 +4844,13 @@
         <v>711956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4865,13 @@
         <v>1856303</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>1841</v>
@@ -4874,13 +4880,13 @@
         <v>1988056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>3559</v>
@@ -4889,13 +4895,13 @@
         <v>3844358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4916,13 @@
         <v>1080846</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>981</v>
@@ -4925,13 +4931,13 @@
         <v>1054979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>2011</v>
@@ -4940,13 +4946,13 @@
         <v>2135825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4967,13 @@
         <v>98024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -4976,13 +4982,13 @@
         <v>75772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>200</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -4991,13 +4997,13 @@
         <v>173796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5059,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5072,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F275D21-84C1-475B-9111-8A153FD2B409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D58729-8AB0-46B8-8FFE-7AAE38462246}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5089,7 +5095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5196,13 +5202,13 @@
         <v>26998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5211,13 +5217,13 @@
         <v>21817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5226,13 +5232,13 @@
         <v>48815</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5253,13 @@
         <v>128549</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>187</v>
@@ -5262,13 +5268,13 @@
         <v>211124</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>322</v>
@@ -5277,13 +5283,13 @@
         <v>339673</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5304,13 @@
         <v>414252</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>495</v>
@@ -5313,13 +5319,13 @@
         <v>548585</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>914</v>
@@ -5328,10 +5334,10 @@
         <v>962837</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>369</v>
@@ -5355,7 +5361,7 @@
         <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -5364,13 +5370,13 @@
         <v>177417</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -5379,13 +5385,13 @@
         <v>336413</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5406,13 @@
         <v>24618</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5415,13 +5421,13 @@
         <v>34837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>382</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -5430,13 +5436,13 @@
         <v>59455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5510,13 @@
         <v>15994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5519,13 +5525,13 @@
         <v>21394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -5534,13 +5540,13 @@
         <v>37389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,7 +5561,7 @@
         <v>216040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>388</v>
@@ -5573,7 +5579,7 @@
         <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>391</v>
@@ -5609,10 +5615,10 @@
         <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>1133</v>
@@ -5621,13 +5627,13 @@
         <v>1174624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>2243</v>
@@ -5636,13 +5642,13 @@
         <v>2350523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5663,13 @@
         <v>586477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>497</v>
@@ -5672,13 +5678,13 @@
         <v>514315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M13" s="7">
         <v>1044</v>
@@ -5687,13 +5693,13 @@
         <v>1100793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5714,13 @@
         <v>76522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>412</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5723,13 +5729,13 @@
         <v>68511</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
@@ -5738,10 +5744,10 @@
         <v>145033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>417</v>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5815,10 +5821,10 @@
         <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5827,13 +5833,13 @@
         <v>4084</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5842,13 +5848,13 @@
         <v>5806</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5869,13 @@
         <v>54412</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5878,13 +5884,13 @@
         <v>51096</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5893,13 +5899,13 @@
         <v>105509</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5920,13 @@
         <v>311669</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>326</v>
@@ -5947,10 +5953,10 @@
         <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5971,13 @@
         <v>165850</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -5980,13 +5986,13 @@
         <v>141974</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>292</v>
@@ -6016,10 +6022,10 @@
         <v>13233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>450</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>451</v>
@@ -6031,13 +6037,13 @@
         <v>10672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>452</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>453</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -6046,13 +6052,13 @@
         <v>23905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6126,13 @@
         <v>44714</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6135,13 +6141,13 @@
         <v>47295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -6150,13 +6156,13 @@
         <v>92009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6177,13 @@
         <v>399001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -6186,13 +6192,13 @@
         <v>466463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>818</v>
@@ -6201,10 +6207,10 @@
         <v>865464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>466</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>467</v>
@@ -6222,13 +6228,13 @@
         <v>1901820</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>1954</v>
@@ -6237,13 +6243,13 @@
         <v>2064523</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M24" s="7">
         <v>3767</v>
@@ -6252,13 +6258,13 @@
         <v>3966342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6279,13 @@
         <v>911324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H25" s="7">
         <v>795</v>
@@ -6288,13 +6294,13 @@
         <v>833707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
         <v>1652</v>
@@ -6303,13 +6309,13 @@
         <v>1745031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6330,13 @@
         <v>114373</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -6342,7 +6348,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>489</v>
@@ -6357,10 +6363,10 @@
         <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>492</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6422,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6435,7 +6441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE9C9FE-529E-4697-9F63-B2BA7F6A57DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C13F5F-E22A-43DB-885E-1A9A70C7ABCA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6452,7 +6458,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6559,13 +6565,13 @@
         <v>13122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>494</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -6574,13 +6580,13 @@
         <v>11469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -6589,10 +6595,10 @@
         <v>24591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>101</v>
@@ -6610,13 +6616,13 @@
         <v>62700</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -6625,13 +6631,13 @@
         <v>118319</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -6640,13 +6646,13 @@
         <v>181018</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6667,13 @@
         <v>286048</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>718</v>
@@ -6676,13 +6682,13 @@
         <v>414012</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>1087</v>
@@ -6691,13 +6697,13 @@
         <v>700060</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6718,13 @@
         <v>164975</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>433</v>
@@ -6727,13 +6733,13 @@
         <v>272800</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
@@ -6742,13 +6748,13 @@
         <v>437775</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6769,13 @@
         <v>13588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6778,13 +6784,13 @@
         <v>18552</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -6793,13 +6799,13 @@
         <v>32140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>529</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>531</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6873,13 @@
         <v>13774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>529</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -6882,13 +6888,13 @@
         <v>17296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6897,13 +6903,13 @@
         <v>31070</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6924,13 @@
         <v>88118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -6933,13 +6939,13 @@
         <v>123470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -6948,13 +6954,13 @@
         <v>211588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6975,13 @@
         <v>1144108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H12" s="7">
         <v>1734</v>
@@ -6984,13 +6990,13 @@
         <v>1341914</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
+        <v>403</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M12" s="7">
         <v>2840</v>
@@ -6999,13 +7005,13 @@
         <v>2486022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7026,13 @@
         <v>801445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>928</v>
@@ -7035,13 +7041,13 @@
         <v>727072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M13" s="7">
         <v>1639</v>
@@ -7050,13 +7056,13 @@
         <v>1528517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7077,13 @@
         <v>113910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>558</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7089,10 +7095,10 @@
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>560</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -7101,13 +7107,13 @@
         <v>151523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7169,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7175,13 +7181,13 @@
         <v>2244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7190,13 +7196,13 @@
         <v>15656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>566</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7205,13 +7211,13 @@
         <v>17900</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>567</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7232,13 @@
         <v>61967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -7241,13 +7247,13 @@
         <v>85306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -7256,13 +7262,13 @@
         <v>147273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7283,13 @@
         <v>379943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
@@ -7292,13 +7298,13 @@
         <v>415295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M18" s="7">
         <v>985</v>
@@ -7307,10 +7313,10 @@
         <v>795239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>584</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>585</v>
@@ -7379,7 +7385,7 @@
         <v>18668</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>595</v>
@@ -7394,13 +7400,13 @@
         <v>6894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>455</v>
+        <v>597</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -7409,13 +7415,13 @@
         <v>25562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>599</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>599</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7489,13 @@
         <v>29141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -7498,13 +7504,13 @@
         <v>44421</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>603</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -7513,13 +7519,13 @@
         <v>73561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,10 +7543,10 @@
         <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
@@ -7549,13 +7555,13 @@
         <v>327095</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
@@ -7564,13 +7570,13 @@
         <v>539880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>611</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7591,13 @@
         <v>1810099</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>614</v>
+        <v>38</v>
       </c>
       <c r="H24" s="7">
         <v>3043</v>
@@ -7603,7 +7609,7 @@
         <v>615</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>616</v>
@@ -7612,16 +7618,16 @@
         <v>4912</v>
       </c>
       <c r="N24" s="7">
-        <v>3981321</v>
+        <v>3981320</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>617</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7642,13 @@
         <v>1176637</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H25" s="7">
         <v>1619</v>
@@ -7651,28 +7657,28 @@
         <v>1190608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M25" s="7">
         <v>2725</v>
       </c>
       <c r="N25" s="7">
-        <v>2367245</v>
+        <v>2367244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7693,13 @@
         <v>146166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -7702,13 +7708,13 @@
         <v>63059</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>629</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>15</v>
+        <v>630</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>173</v>
@@ -7717,13 +7723,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>104</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,7 +7771,7 @@
         <v>8707</v>
       </c>
       <c r="N27" s="7">
-        <v>7171231</v>
+        <v>7171230</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7779,7 +7785,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FBD7AC-AFD0-44C7-971F-350003739827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA29971E-7DBF-41FB-966F-5C630D668710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6085BC1-FD56-425F-8EF0-B5C22C30B9F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F29E1EC0-2D22-48BC-8D5F-794F531FB609}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="645">
   <si>
     <t>Población según la frecuencia de consumo de pasta en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -80,1864 +80,1897 @@
     <t>1,04%</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>55,65%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pasta en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pasta en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
   </si>
   <si>
     <t>5,73%</t>
@@ -2352,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB54EE8-12D2-43FE-8EBD-B420448F5138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63E3782-6D68-4658-9B1B-E4066912E364}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3095,10 +3128,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3107,13 +3140,13 @@
         <v>6048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3122,13 +3155,13 @@
         <v>13231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3176,13 @@
         <v>35736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3158,13 +3191,13 @@
         <v>29587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3173,13 +3206,13 @@
         <v>65323</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3227,13 @@
         <v>300442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>269</v>
@@ -3209,13 +3242,13 @@
         <v>283973</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>558</v>
@@ -3224,13 +3257,13 @@
         <v>584415</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3278,13 @@
         <v>187039</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3260,13 +3293,13 @@
         <v>150106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -3275,13 +3308,13 @@
         <v>337145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3329,13 @@
         <v>21007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3311,13 +3344,13 @@
         <v>5699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3326,13 +3359,13 @@
         <v>26707</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3433,13 @@
         <v>35757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3415,13 +3448,13 @@
         <v>50570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3433,10 +3466,10 @@
         <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3484,13 @@
         <v>281295</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>258</v>
@@ -3466,13 +3499,13 @@
         <v>269127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>538</v>
@@ -3481,13 +3514,13 @@
         <v>550422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3535,13 @@
         <v>1808364</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>1897</v>
@@ -3517,13 +3550,13 @@
         <v>1946167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>3671</v>
@@ -3532,13 +3565,13 @@
         <v>3754531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3586,13 @@
         <v>1048515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>1017</v>
@@ -3568,13 +3601,13 @@
         <v>1033227</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>2038</v>
@@ -3583,13 +3616,13 @@
         <v>2081742</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3637,13 @@
         <v>99690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -3619,13 +3652,13 @@
         <v>75079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -3634,13 +3667,13 @@
         <v>174769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,7 +3729,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F092C-175B-483E-97B8-4AB8EFF7C84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E474FA-F133-4A09-8406-2DFA983E7F9A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3732,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3839,13 +3872,13 @@
         <v>30307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3854,13 +3887,13 @@
         <v>21117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3869,13 +3902,13 @@
         <v>51424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3923,13 @@
         <v>168073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -3905,13 +3938,13 @@
         <v>210226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
@@ -3920,13 +3953,13 @@
         <v>378299</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3974,13 @@
         <v>539462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>706</v>
@@ -3956,13 +3989,13 @@
         <v>755158</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>1207</v>
@@ -3971,13 +4004,13 @@
         <v>1294621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4025,13 @@
         <v>223133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>308</v>
@@ -4007,13 +4040,13 @@
         <v>331335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -4022,13 +4055,13 @@
         <v>554468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4076,13 @@
         <v>10555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4058,13 +4091,13 @@
         <v>16975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -4076,10 +4109,10 @@
         <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,10 +4183,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4162,13 +4195,13 @@
         <v>14751</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4177,13 +4210,13 @@
         <v>35110</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4231,13 @@
         <v>134221</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -4231,10 +4264,10 @@
         <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,16 +4279,16 @@
         <v>983</v>
       </c>
       <c r="D12" s="7">
-        <v>1053487</v>
+        <v>1053488</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>902</v>
@@ -4264,13 +4297,13 @@
         <v>974170</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>1885</v>
@@ -4279,13 +4312,13 @@
         <v>2027657</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4333,13 @@
         <v>693606</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>542</v>
@@ -4315,13 +4348,13 @@
         <v>577348</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>1206</v>
@@ -4330,13 +4363,13 @@
         <v>1270954</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4384,13 @@
         <v>61374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -4366,13 +4399,13 @@
         <v>48592</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4381,13 +4414,13 @@
         <v>109965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,7 +4432,7 @@
         <v>1855</v>
       </c>
       <c r="D15" s="7">
-        <v>1963046</v>
+        <v>1963047</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4455,13 +4488,13 @@
         <v>4085</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4476,7 +4509,7 @@
         <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4485,7 +4518,7 @@
         <v>6381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>273</v>
@@ -4611,10 +4644,10 @@
         <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -4623,13 +4656,13 @@
         <v>146296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -4638,13 +4671,13 @@
         <v>310402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,10 +4692,10 @@
         <v>26095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>303</v>
@@ -4674,13 +4707,13 @@
         <v>10205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -4763,13 +4796,13 @@
         <v>54751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -4778,7 +4811,7 @@
         <v>38164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>310</v>
@@ -4793,13 +4826,13 @@
         <v>92915</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4847,13 @@
         <v>323665</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -4829,13 +4862,13 @@
         <v>388292</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>662</v>
@@ -4844,13 +4877,13 @@
         <v>711956</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4898,13 @@
         <v>1856303</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>1841</v>
@@ -4880,13 +4913,13 @@
         <v>1988056</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>3559</v>
@@ -4895,10 +4928,10 @@
         <v>3844358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>329</v>
@@ -4937,7 +4970,7 @@
         <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>2011</v>
@@ -4946,13 +4979,13 @@
         <v>2135825</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +5000,13 @@
         <v>98024</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -4982,7 +5015,7 @@
         <v>75772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>341</v>
@@ -5000,10 +5033,10 @@
         <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,7 +5092,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5078,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D58729-8AB0-46B8-8FFE-7AAE38462246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD0CA1C-12F8-4484-B88F-9948DFD7B8E8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5095,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5202,13 +5235,13 @@
         <v>26998</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5217,13 +5250,13 @@
         <v>21817</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5232,10 +5265,10 @@
         <v>48815</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>352</v>
@@ -5361,7 +5394,7 @@
         <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -5370,13 +5403,13 @@
         <v>177417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -5385,13 +5418,13 @@
         <v>336413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5439,13 @@
         <v>24618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5421,13 +5454,13 @@
         <v>34837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -5436,13 +5469,13 @@
         <v>59455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5543,13 @@
         <v>15994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5525,13 +5558,13 @@
         <v>21394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -5540,13 +5573,13 @@
         <v>37389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5594,13 @@
         <v>216040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>193</v>
@@ -5576,13 +5609,13 @@
         <v>204242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>398</v>
@@ -5591,13 +5624,13 @@
         <v>420282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5645,13 @@
         <v>1175898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H12" s="7">
         <v>1133</v>
@@ -5627,13 +5660,13 @@
         <v>1174624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M12" s="7">
         <v>2243</v>
@@ -5642,13 +5675,13 @@
         <v>2350523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5696,13 @@
         <v>586477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>497</v>
@@ -5678,13 +5711,13 @@
         <v>514315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>1044</v>
@@ -5693,13 +5726,13 @@
         <v>1100793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5747,13 @@
         <v>76522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>418</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5729,13 +5762,13 @@
         <v>68511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
@@ -5744,13 +5777,13 @@
         <v>145033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5851,13 @@
         <v>1722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5833,13 +5866,13 @@
         <v>4084</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>427</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5848,13 +5881,13 @@
         <v>5806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5902,13 @@
         <v>54412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5884,13 +5917,13 @@
         <v>51096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5899,13 +5932,13 @@
         <v>105509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5953,13 @@
         <v>311669</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>326</v>
@@ -5935,13 +5968,13 @@
         <v>341313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>610</v>
@@ -5950,13 +5983,13 @@
         <v>652982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>447</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +6004,13 @@
         <v>165850</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -5986,13 +6019,13 @@
         <v>141974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>445</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>292</v>
@@ -6001,13 +6034,13 @@
         <v>307825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6055,13 @@
         <v>13233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -6037,13 +6070,13 @@
         <v>10672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -6052,13 +6085,13 @@
         <v>23905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6159,13 @@
         <v>44714</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6141,13 +6174,13 @@
         <v>47295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -6156,13 +6189,13 @@
         <v>92009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>467</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6210,13 @@
         <v>399001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -6192,13 +6225,13 @@
         <v>466463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>818</v>
@@ -6207,13 +6240,13 @@
         <v>865464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6261,13 @@
         <v>1901820</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>1954</v>
@@ -6243,13 +6276,13 @@
         <v>2064523</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="M24" s="7">
         <v>3767</v>
@@ -6258,13 +6291,13 @@
         <v>3966342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6312,13 @@
         <v>911324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="H25" s="7">
         <v>795</v>
@@ -6294,13 +6327,13 @@
         <v>833707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M25" s="7">
         <v>1652</v>
@@ -6309,13 +6342,13 @@
         <v>1745031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6363,13 @@
         <v>114373</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>486</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>487</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -6348,10 +6381,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -6360,13 +6393,13 @@
         <v>228393</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6455,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6441,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C13F5F-E22A-43DB-885E-1A9A70C7ABCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8FE11D-2A45-4E3E-9257-4311A736D52D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6458,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6565,13 +6598,13 @@
         <v>13122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -6580,13 +6613,13 @@
         <v>11469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>495</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -6595,7 +6628,7 @@
         <v>24591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
@@ -6616,13 +6649,13 @@
         <v>62700</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -6631,13 +6664,13 @@
         <v>118319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -6646,13 +6679,13 @@
         <v>181018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>513</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6700,13 @@
         <v>286048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H6" s="7">
         <v>718</v>
@@ -6682,13 +6715,13 @@
         <v>414012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M6" s="7">
         <v>1087</v>
@@ -6697,13 +6730,13 @@
         <v>700060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6751,13 @@
         <v>164975</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>433</v>
@@ -6733,13 +6766,13 @@
         <v>272800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
@@ -6748,13 +6781,13 @@
         <v>437775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>520</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6802,13 @@
         <v>13588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6784,13 +6817,13 @@
         <v>18552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>526</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>527</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -6799,13 +6832,13 @@
         <v>32140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>536</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,13 +6906,13 @@
         <v>13774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>529</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -6888,13 +6921,13 @@
         <v>17296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6903,13 +6936,13 @@
         <v>31070</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>533</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6957,13 @@
         <v>88118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -6939,13 +6972,13 @@
         <v>123470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -6954,13 +6987,13 @@
         <v>211588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +7008,13 @@
         <v>1144108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="H12" s="7">
         <v>1734</v>
@@ -6990,13 +7023,13 @@
         <v>1341914</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>2840</v>
@@ -7005,13 +7038,13 @@
         <v>2486022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7059,13 @@
         <v>801445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H13" s="7">
         <v>928</v>
@@ -7041,13 +7074,13 @@
         <v>727072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="M13" s="7">
         <v>1639</v>
@@ -7056,13 +7089,13 @@
         <v>1528517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7110,13 @@
         <v>113910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>569</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7095,10 +7128,10 @@
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -7107,13 +7140,13 @@
         <v>151523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7214,13 @@
         <v>2244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7196,13 +7229,13 @@
         <v>15656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7211,10 +7244,10 @@
         <v>17900</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>67</v>
@@ -7232,13 +7265,13 @@
         <v>61967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -7247,13 +7280,13 @@
         <v>85306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -7262,13 +7295,13 @@
         <v>147273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7316,13 @@
         <v>379943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
@@ -7298,13 +7331,13 @@
         <v>415295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="M18" s="7">
         <v>985</v>
@@ -7313,13 +7346,13 @@
         <v>795239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7367,13 @@
         <v>210217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>258</v>
@@ -7349,13 +7382,13 @@
         <v>190735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>455</v>
@@ -7364,13 +7397,13 @@
         <v>400952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7418,13 @@
         <v>18668</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -7400,13 +7433,13 @@
         <v>6894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -7415,13 +7448,13 @@
         <v>25562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7522,13 @@
         <v>29141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>601</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>602</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -7504,13 +7537,13 @@
         <v>44421</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -7519,13 +7552,13 @@
         <v>73561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7573,13 @@
         <v>212785</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
@@ -7555,13 +7588,13 @@
         <v>327095</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
@@ -7570,13 +7603,13 @@
         <v>539880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7624,13 @@
         <v>1810099</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>38</v>
+        <v>625</v>
       </c>
       <c r="H24" s="7">
         <v>3043</v>
@@ -7606,13 +7639,13 @@
         <v>2171221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>615</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="M24" s="7">
         <v>4912</v>
@@ -7621,13 +7654,13 @@
         <v>3981320</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7675,13 @@
         <v>1176637</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="H25" s="7">
         <v>1619</v>
@@ -7657,13 +7690,13 @@
         <v>1190608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>634</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="M25" s="7">
         <v>2725</v>
@@ -7672,13 +7705,13 @@
         <v>2367244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7726,13 @@
         <v>146166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -7708,13 +7741,13 @@
         <v>63059</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>173</v>
@@ -7723,13 +7756,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>632</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7818,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA29971E-7DBF-41FB-966F-5C630D668710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53148E9B-B286-4AB5-A887-17FEBA15218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F29E1EC0-2D22-48BC-8D5F-794F531FB609}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38BED8A8-45BD-4588-883B-8CE14759B360}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="632">
   <si>
     <t>Población según la frecuencia de consumo de pasta en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -77,1903 +77,1864 @@
     <t>1,67%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>57,19%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pasta en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pasta en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>5,71%</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63E3782-6D68-4658-9B1B-E4066912E364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDA1C11-D732-4C32-8846-E82A8B4F85BC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3042,7 +3003,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -3051,13 +3012,13 @@
         <v>84138</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,7 +3074,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3125,7 +3086,7 @@
         <v>7183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>108</v>
@@ -3146,7 +3107,7 @@
         <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3155,7 +3116,7 @@
         <v>13231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>113</v>
@@ -3332,10 +3293,10 @@
         <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3344,13 +3305,13 @@
         <v>5699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3359,13 +3320,13 @@
         <v>26707</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3394,13 @@
         <v>35757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3448,13 +3409,13 @@
         <v>50570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3463,7 +3424,7 @@
         <v>86327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>155</v>
@@ -3520,7 +3481,7 @@
         <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3496,13 @@
         <v>1808364</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>1897</v>
@@ -3550,28 +3511,28 @@
         <v>1946167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>3671</v>
       </c>
       <c r="N24" s="7">
-        <v>3754531</v>
+        <v>3754532</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3547,13 @@
         <v>1048515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1017</v>
@@ -3601,13 +3562,13 @@
         <v>1033227</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>2038</v>
@@ -3616,13 +3577,13 @@
         <v>2081742</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3598,13 @@
         <v>99690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -3652,13 +3613,13 @@
         <v>75079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -3667,13 +3628,13 @@
         <v>174769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3676,7 @@
         <v>6503</v>
       </c>
       <c r="N27" s="7">
-        <v>6647792</v>
+        <v>6647793</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3729,7 +3690,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E474FA-F133-4A09-8406-2DFA983E7F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E1B35-2061-49A4-A794-B68A9F61C730}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3872,13 +3833,13 @@
         <v>30307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3887,13 +3848,13 @@
         <v>21117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3902,13 +3863,13 @@
         <v>51424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3884,13 @@
         <v>168073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -3938,13 +3899,13 @@
         <v>210226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
@@ -3953,13 +3914,13 @@
         <v>378299</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3935,13 @@
         <v>539462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>706</v>
@@ -3989,13 +3950,13 @@
         <v>755158</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>1207</v>
@@ -4004,13 +3965,13 @@
         <v>1294621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +3986,13 @@
         <v>223133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>308</v>
@@ -4040,13 +4001,13 @@
         <v>331335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -4055,13 +4016,13 @@
         <v>554468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4037,13 @@
         <v>10555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4094,10 +4055,10 @@
         <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -4106,13 +4067,13 @@
         <v>27530</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,10 +4141,10 @@
         <v>20359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -4195,13 +4156,13 @@
         <v>14751</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4210,13 +4171,13 @@
         <v>35110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4192,13 @@
         <v>134221</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -4246,13 +4207,13 @@
         <v>137977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>258</v>
@@ -4261,13 +4222,13 @@
         <v>272198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4243,13 @@
         <v>1053488</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>902</v>
@@ -4297,13 +4258,13 @@
         <v>974170</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>1885</v>
@@ -4312,13 +4273,13 @@
         <v>2027657</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4294,13 @@
         <v>693606</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>542</v>
@@ -4348,10 +4309,10 @@
         <v>577348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>257</v>
@@ -4363,13 +4324,13 @@
         <v>1270954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4345,13 @@
         <v>61374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -4399,13 +4360,13 @@
         <v>48592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4414,13 +4375,13 @@
         <v>109965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4449,13 @@
         <v>4085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4503,13 +4464,13 @@
         <v>2296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4518,13 +4479,13 @@
         <v>6381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4500,13 @@
         <v>21371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -4554,13 +4515,13 @@
         <v>40089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4569,13 +4530,13 @@
         <v>61460</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4551,13 @@
         <v>263353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -4605,13 +4566,13 @@
         <v>258727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>467</v>
@@ -4620,13 +4581,13 @@
         <v>522080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4602,13 @@
         <v>164107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -4656,13 +4617,13 @@
         <v>146296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -4671,13 +4632,13 @@
         <v>310402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4653,13 @@
         <v>26095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4707,13 +4668,13 @@
         <v>10205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -4722,13 +4683,13 @@
         <v>36300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4757,13 @@
         <v>54751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -4811,13 +4772,13 @@
         <v>38164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -4826,13 +4787,13 @@
         <v>92915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4808,13 @@
         <v>323665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -4862,13 +4823,13 @@
         <v>388292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>662</v>
@@ -4877,13 +4838,13 @@
         <v>711956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4859,13 @@
         <v>1856303</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>1841</v>
@@ -4913,13 +4874,13 @@
         <v>1988056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>3559</v>
@@ -4928,13 +4889,13 @@
         <v>3844358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4910,13 @@
         <v>1080846</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>981</v>
@@ -4964,13 +4925,13 @@
         <v>1054979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>2011</v>
@@ -4979,13 +4940,13 @@
         <v>2135825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4961,13 @@
         <v>98024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5015,13 +4976,13 @@
         <v>75772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5030,13 +4991,13 @@
         <v>173796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,7 +5053,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD0CA1C-12F8-4484-B88F-9948DFD7B8E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624975C-E27C-4215-ACC1-F9FB00B583E2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,7 +5089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5235,13 +5196,13 @@
         <v>26998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5250,13 +5211,13 @@
         <v>21817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5265,13 +5226,13 @@
         <v>48815</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5247,13 @@
         <v>128549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>187</v>
@@ -5301,13 +5262,13 @@
         <v>211124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>322</v>
@@ -5316,13 +5277,13 @@
         <v>339673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5298,13 @@
         <v>414252</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>495</v>
@@ -5352,13 +5313,13 @@
         <v>548585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>914</v>
@@ -5367,10 +5328,10 @@
         <v>962837</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>369</v>
@@ -5439,13 +5400,13 @@
         <v>24618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5454,7 +5415,7 @@
         <v>34837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>382</v>
@@ -5472,10 +5433,10 @@
         <v>384</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5504,13 @@
         <v>15994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>388</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>389</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5558,13 +5519,13 @@
         <v>21394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -5573,13 +5534,13 @@
         <v>37389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5555,13 @@
         <v>216040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>193</v>
@@ -5609,13 +5570,13 @@
         <v>204242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>398</v>
@@ -5624,13 +5585,13 @@
         <v>420282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5606,13 @@
         <v>1175898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H12" s="7">
         <v>1133</v>
@@ -5660,13 +5621,13 @@
         <v>1174624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M12" s="7">
         <v>2243</v>
@@ -5675,13 +5636,13 @@
         <v>2350523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5657,13 @@
         <v>586477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>497</v>
@@ -5711,13 +5672,13 @@
         <v>514315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="M13" s="7">
         <v>1044</v>
@@ -5726,13 +5687,13 @@
         <v>1100793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5708,13 @@
         <v>76522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5762,13 +5723,13 @@
         <v>68511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>422</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
@@ -5777,13 +5738,13 @@
         <v>145033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5851,13 +5812,13 @@
         <v>1722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5866,13 +5827,13 @@
         <v>4084</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5881,13 +5842,13 @@
         <v>5806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5863,13 @@
         <v>54412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5917,13 +5878,13 @@
         <v>51096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5932,13 +5893,13 @@
         <v>105509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5914,13 @@
         <v>311669</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>442</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>326</v>
@@ -5968,13 +5929,13 @@
         <v>341313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M18" s="7">
         <v>610</v>
@@ -5983,13 +5944,13 @@
         <v>652982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +5965,13 @@
         <v>165850</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -6019,13 +5980,13 @@
         <v>141974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>292</v>
@@ -6034,13 +5995,13 @@
         <v>307825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6016,13 @@
         <v>13233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -6070,13 +6031,13 @@
         <v>10672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>458</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>459</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -6085,13 +6046,13 @@
         <v>23905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>462</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6120,13 @@
         <v>44714</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>464</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6174,13 +6135,13 @@
         <v>47295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -6189,13 +6150,13 @@
         <v>92009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>450</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>467</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6171,13 @@
         <v>399001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -6225,13 +6186,13 @@
         <v>466463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>818</v>
@@ -6240,13 +6201,13 @@
         <v>865464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6222,13 @@
         <v>1901820</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>1954</v>
@@ -6276,13 +6237,13 @@
         <v>2064523</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="M24" s="7">
         <v>3767</v>
@@ -6291,13 +6252,13 @@
         <v>3966342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6273,13 @@
         <v>911324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>795</v>
@@ -6327,13 +6288,13 @@
         <v>833707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>1652</v>
@@ -6342,13 +6303,13 @@
         <v>1745031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6324,13 @@
         <v>114373</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>486</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -6381,10 +6342,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>488</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -6393,13 +6354,13 @@
         <v>228393</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,7 +6416,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8FE11D-2A45-4E3E-9257-4311A736D52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9811DF-85DB-495D-84CE-12CAE3F75847}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +6452,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6598,13 +6559,13 @@
         <v>13122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -6613,13 +6574,13 @@
         <v>11469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -6628,10 +6589,10 @@
         <v>24591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>505</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>101</v>
@@ -6649,13 +6610,13 @@
         <v>62700</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -6664,13 +6625,13 @@
         <v>118319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -6679,13 +6640,13 @@
         <v>181018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6661,13 @@
         <v>286048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>718</v>
@@ -6715,13 +6676,13 @@
         <v>414012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>1087</v>
@@ -6730,13 +6691,13 @@
         <v>700060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6712,13 @@
         <v>164975</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>433</v>
@@ -6766,13 +6727,13 @@
         <v>272800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
@@ -6781,13 +6742,13 @@
         <v>437775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>530</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6763,13 @@
         <v>13588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>532</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6817,13 +6778,13 @@
         <v>18552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -6832,13 +6793,13 @@
         <v>32140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6867,13 @@
         <v>13774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -6921,13 +6882,13 @@
         <v>17296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>533</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6936,13 +6897,13 @@
         <v>31070</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>542</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6918,13 @@
         <v>88118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>544</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -6972,13 +6933,13 @@
         <v>123470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -6987,13 +6948,13 @@
         <v>211588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +6969,13 @@
         <v>1144108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H12" s="7">
         <v>1734</v>
@@ -7023,13 +6984,13 @@
         <v>1341914</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>554</v>
+        <v>398</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M12" s="7">
         <v>2840</v>
@@ -7038,13 +6999,13 @@
         <v>2486022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7020,13 @@
         <v>801445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>928</v>
@@ -7074,13 +7035,13 @@
         <v>727072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>1639</v>
@@ -7089,13 +7050,13 @@
         <v>1528517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7071,13 @@
         <v>113910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7128,10 +7089,10 @@
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -7140,13 +7101,13 @@
         <v>151523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>571</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>572</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,7 +7163,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7214,13 +7175,13 @@
         <v>2244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7229,13 +7190,13 @@
         <v>15656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7244,13 +7205,13 @@
         <v>17900</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>579</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7226,13 @@
         <v>61967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -7280,13 +7241,13 @@
         <v>85306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -7295,13 +7256,13 @@
         <v>147273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7277,13 @@
         <v>379943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
@@ -7331,13 +7292,13 @@
         <v>415295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="M18" s="7">
         <v>985</v>
@@ -7346,13 +7307,13 @@
         <v>795239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7328,13 @@
         <v>210217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="H19" s="7">
         <v>258</v>
@@ -7382,13 +7343,13 @@
         <v>190735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="M19" s="7">
         <v>455</v>
@@ -7397,13 +7358,13 @@
         <v>400952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7379,13 @@
         <v>18668</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -7433,13 +7394,13 @@
         <v>6894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>608</v>
+        <v>455</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -7448,13 +7409,13 @@
         <v>25562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>610</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7483,13 @@
         <v>29141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>601</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -7537,13 +7498,13 @@
         <v>44421</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>603</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -7552,13 +7513,13 @@
         <v>73561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7534,13 @@
         <v>212785</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
@@ -7588,13 +7549,13 @@
         <v>327095</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
@@ -7603,13 +7564,13 @@
         <v>539880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>611</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>622</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7585,13 @@
         <v>1810099</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>3043</v>
@@ -7639,28 +7600,28 @@
         <v>2171221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>88</v>
+        <v>615</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="M24" s="7">
         <v>4912</v>
       </c>
       <c r="N24" s="7">
-        <v>3981320</v>
+        <v>3981321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>628</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7636,13 @@
         <v>1176637</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="H25" s="7">
         <v>1619</v>
@@ -7690,28 +7651,28 @@
         <v>1190608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>634</v>
+        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>2725</v>
       </c>
       <c r="N25" s="7">
-        <v>2367244</v>
+        <v>2367245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7687,13 @@
         <v>146166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -7741,13 +7702,13 @@
         <v>63059</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>629</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>641</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>173</v>
@@ -7756,13 +7717,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>643</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,7 +7765,7 @@
         <v>8707</v>
       </c>
       <c r="N27" s="7">
-        <v>7171230</v>
+        <v>7171231</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7818,7 +7779,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53148E9B-B286-4AB5-A887-17FEBA15218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9FCB01-9939-40A0-9DDE-2D3F849B28D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38BED8A8-45BD-4588-883B-8CE14759B360}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6DD81EC-E058-4A8B-B510-73837A515CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="630">
   <si>
     <t>Población según la frecuencia de consumo de pasta en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -1523,418 +1523,412 @@
     <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>33,67%</t>
   </si>
   <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDA1C11-D732-4C32-8846-E82A8B4F85BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27843910-583F-422D-8EF6-488202F03FD5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3493,7 +3487,7 @@
         <v>1774</v>
       </c>
       <c r="D24" s="7">
-        <v>1808364</v>
+        <v>1808365</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>166</v>
@@ -3523,7 +3517,7 @@
         <v>3671</v>
       </c>
       <c r="N24" s="7">
-        <v>3754532</v>
+        <v>3754531</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>172</v>
@@ -3544,7 +3538,7 @@
         <v>1021</v>
       </c>
       <c r="D25" s="7">
-        <v>1048515</v>
+        <v>1048516</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>175</v>
@@ -3595,7 +3589,7 @@
         <v>98</v>
       </c>
       <c r="D26" s="7">
-        <v>99690</v>
+        <v>99691</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>184</v>
@@ -3646,7 +3640,7 @@
         <v>3211</v>
       </c>
       <c r="D27" s="7">
-        <v>3273622</v>
+        <v>3273623</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3676,7 +3670,7 @@
         <v>6503</v>
       </c>
       <c r="N27" s="7">
-        <v>6647793</v>
+        <v>6647792</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3709,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E1B35-2061-49A4-A794-B68A9F61C730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC9621-4AA1-4CC6-98C8-991AC7065407}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5009,7 +5003,7 @@
         <v>3197</v>
       </c>
       <c r="D27" s="7">
-        <v>3413588</v>
+        <v>3413589</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5072,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624975C-E27C-4215-ACC1-F9FB00B583E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B7084-7E1A-4684-A3A5-D53EEC07BCD2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5786,7 +5780,7 @@
         <v>3851</v>
       </c>
       <c r="N15" s="7">
-        <v>4054020</v>
+        <v>4054019</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5941,7 +5935,7 @@
         <v>610</v>
       </c>
       <c r="N18" s="7">
-        <v>652982</v>
+        <v>652983</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>439</v>
@@ -6094,7 +6088,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6219,7 +6213,7 @@
         <v>1813</v>
       </c>
       <c r="D24" s="7">
-        <v>1901820</v>
+        <v>1901819</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>401</v>
@@ -6270,7 +6264,7 @@
         <v>857</v>
       </c>
       <c r="D25" s="7">
-        <v>911324</v>
+        <v>911323</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>476</v>
@@ -6372,7 +6366,7 @@
         <v>3210</v>
       </c>
       <c r="D27" s="7">
-        <v>3371232</v>
+        <v>3371231</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6435,7 +6429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9811DF-85DB-495D-84CE-12CAE3F75847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A7AC9-F78E-4469-9E52-E478C3FDEF1B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6556,46 +6550,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>13122</v>
+        <v>12572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>494</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>495</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>11469</v>
+        <v>10553</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>24591</v>
+        <v>23125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,46 +6601,46 @@
         <v>89</v>
       </c>
       <c r="D5" s="7">
-        <v>62700</v>
+        <v>59824</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
       </c>
       <c r="I5" s="7">
-        <v>118319</v>
+        <v>107378</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
       </c>
       <c r="N5" s="7">
-        <v>181018</v>
+        <v>167203</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,46 +6652,46 @@
         <v>369</v>
       </c>
       <c r="D6" s="7">
-        <v>286048</v>
+        <v>278251</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>718</v>
       </c>
       <c r="I6" s="7">
-        <v>414012</v>
+        <v>380592</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>1087</v>
       </c>
       <c r="N6" s="7">
-        <v>700060</v>
+        <v>658843</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,46 +6703,46 @@
         <v>198</v>
       </c>
       <c r="D7" s="7">
-        <v>164975</v>
+        <v>150335</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>433</v>
       </c>
       <c r="I7" s="7">
-        <v>272800</v>
+        <v>240888</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
       </c>
       <c r="N7" s="7">
-        <v>437775</v>
+        <v>391224</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,46 +6754,46 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>13588</v>
+        <v>12815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>525</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>18552</v>
+        <v>15345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>526</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>32140</v>
+        <v>28159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>530</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,7 +6805,7 @@
         <v>689</v>
       </c>
       <c r="D9" s="7">
-        <v>540433</v>
+        <v>513798</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6826,7 +6820,7 @@
         <v>1425</v>
       </c>
       <c r="I9" s="7">
-        <v>835151</v>
+        <v>754756</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6841,7 +6835,7 @@
         <v>2114</v>
       </c>
       <c r="N9" s="7">
-        <v>1375584</v>
+        <v>1268554</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6864,46 +6858,46 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>13774</v>
+        <v>13302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>527</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>17296</v>
+        <v>16185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>31070</v>
+        <v>29487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>533</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,46 +6909,46 @@
         <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>88118</v>
+        <v>84157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>533</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
       </c>
       <c r="I11" s="7">
-        <v>123470</v>
+        <v>114057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>538</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
       </c>
       <c r="N11" s="7">
-        <v>211588</v>
+        <v>198214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>540</v>
+        <v>415</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,46 +6960,46 @@
         <v>1106</v>
       </c>
       <c r="D12" s="7">
-        <v>1144108</v>
+        <v>1134185</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>543</v>
+        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>1734</v>
       </c>
       <c r="I12" s="7">
-        <v>1341914</v>
+        <v>1371707</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>398</v>
+        <v>541</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M12" s="7">
         <v>2840</v>
       </c>
       <c r="N12" s="7">
-        <v>2486022</v>
+        <v>2505891</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>543</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,46 +7011,46 @@
         <v>711</v>
       </c>
       <c r="D13" s="7">
-        <v>801445</v>
+        <v>758009</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>928</v>
       </c>
       <c r="I13" s="7">
-        <v>727072</v>
+        <v>701463</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>1639</v>
       </c>
       <c r="N13" s="7">
-        <v>1528517</v>
+        <v>1459472</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,43 +7062,43 @@
         <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>113910</v>
+        <v>300043</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>37613</v>
+        <v>32411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>558</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>560</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>151523</v>
+        <v>332454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>561</v>
@@ -7119,7 +7113,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2161356</v>
+        <v>2289695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7134,7 +7128,7 @@
         <v>2917</v>
       </c>
       <c r="I15" s="7">
-        <v>2247365</v>
+        <v>2235824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7149,7 +7143,7 @@
         <v>4908</v>
       </c>
       <c r="N15" s="7">
-        <v>4408721</v>
+        <v>4525518</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7172,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2244</v>
+        <v>2068</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>562</v>
@@ -7187,31 +7181,31 @@
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>15656</v>
+        <v>14538</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>17900</v>
+        <v>16606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,46 +7217,46 @@
         <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>61967</v>
+        <v>59152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
       </c>
       <c r="I17" s="7">
-        <v>85306</v>
+        <v>78583</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
       </c>
       <c r="N17" s="7">
-        <v>147273</v>
+        <v>137734</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,46 +7268,46 @@
         <v>394</v>
       </c>
       <c r="D18" s="7">
-        <v>379943</v>
+        <v>369246</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H18" s="7">
         <v>591</v>
       </c>
       <c r="I18" s="7">
-        <v>415295</v>
+        <v>388436</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M18" s="7">
         <v>985</v>
       </c>
       <c r="N18" s="7">
-        <v>795239</v>
+        <v>757683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>584</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,46 +7319,46 @@
         <v>197</v>
       </c>
       <c r="D19" s="7">
-        <v>210217</v>
+        <v>193915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H19" s="7">
         <v>258</v>
       </c>
       <c r="I19" s="7">
-        <v>190735</v>
+        <v>172643</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M19" s="7">
         <v>455</v>
       </c>
       <c r="N19" s="7">
-        <v>400952</v>
+        <v>366558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7370,46 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>18668</v>
+        <v>22242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>6894</v>
+        <v>6263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
       </c>
       <c r="N20" s="7">
-        <v>25562</v>
+        <v>28505</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7421,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7442,7 +7436,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7457,7 +7451,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7480,46 +7474,46 @@
         <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>29141</v>
+        <v>27942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>44421</v>
+        <v>41276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
       </c>
       <c r="N22" s="7">
-        <v>73561</v>
+        <v>69218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7525,46 @@
         <v>258</v>
       </c>
       <c r="D23" s="7">
-        <v>212785</v>
+        <v>203133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H23" s="7">
         <v>523</v>
       </c>
       <c r="I23" s="7">
-        <v>327095</v>
+        <v>300018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
       </c>
       <c r="N23" s="7">
-        <v>539880</v>
+        <v>503151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,46 +7576,46 @@
         <v>1869</v>
       </c>
       <c r="D24" s="7">
-        <v>1810099</v>
+        <v>1781682</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>3043</v>
       </c>
       <c r="I24" s="7">
-        <v>2171221</v>
+        <v>2140735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>4912</v>
       </c>
       <c r="N24" s="7">
-        <v>3981321</v>
+        <v>3922418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>617</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,46 +7627,46 @@
         <v>1106</v>
       </c>
       <c r="D25" s="7">
-        <v>1176637</v>
+        <v>1102259</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>1619</v>
       </c>
       <c r="I25" s="7">
-        <v>1190608</v>
+        <v>1114995</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>2725</v>
       </c>
       <c r="N25" s="7">
-        <v>2367245</v>
+        <v>2217254</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,46 +7678,46 @@
         <v>86</v>
       </c>
       <c r="D26" s="7">
-        <v>146166</v>
+        <v>335100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>627</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
       </c>
       <c r="I26" s="7">
-        <v>63059</v>
+        <v>54019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>629</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>15</v>
+        <v>424</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M26" s="7">
         <v>173</v>
       </c>
       <c r="N26" s="7">
-        <v>209225</v>
+        <v>389119</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>628</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7729,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3374828</v>
+        <v>3450116</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7750,7 +7744,7 @@
         <v>5346</v>
       </c>
       <c r="I27" s="7">
-        <v>3796403</v>
+        <v>3651043</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7765,7 +7759,7 @@
         <v>8707</v>
       </c>
       <c r="N27" s="7">
-        <v>7171231</v>
+        <v>7101159</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
